--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/100_ジョブフロー設計/ネット・ジョブフロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/100_ジョブフロー設計/ネット・ジョブフロー_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ED3B00-A3DF-4F43-988B-C2509A70E272}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D375426A-1AE5-4908-B3F1-4EDA2800C480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="17" r:id="rId1"/>
@@ -26,7 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -743,13 +748,13 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -762,13 +767,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,16 +781,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -797,128 +799,76 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -930,17 +880,99 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -959,188 +991,107 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1151,9 +1102,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1166,7 +1114,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,31 +1129,31 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3021,21 +2969,19 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="16"/>
+    <col min="1" max="16384" width="8.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+      <c r="A2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3057,124 +3003,124 @@
     <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="F22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
       <c r="J23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="98">
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="69">
         <v>43635</v>
       </c>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F28" s="21"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="F29" s="19"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="20"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="20"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="20"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="20"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="F32" s="20"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="20"/>
-      <c r="J32" s="23"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="19"/>
+      <c r="J32" s="22"/>
     </row>
     <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="F33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="J33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
+      <c r="F33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="J33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
     </row>
     <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="F34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="J34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
+      <c r="F34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="J34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
     </row>
     <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
     </row>
     <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O36" s="28"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="28"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="26"/>
     </row>
     <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="29"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="27"/>
     </row>
     <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
     </row>
     <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
     </row>
     <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3679,158 +3625,158 @@
     <col min="1" max="16384" width="4.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="108" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="114" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="123" t="s">
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="125"/>
-      <c r="AA1" s="105" t="s">
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="132" t="str">
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="131" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="99">
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="133"/>
+      <c r="AG1" s="98">
         <f>IF(D8="","",D8)</f>
         <v>43635</v>
       </c>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="101"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="100"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="2"/>
     </row>
-    <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="105" t="s">
+    <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="105" t="s">
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="111" t="str">
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="110" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="99" t="str">
+      <c r="AD2" s="111"/>
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="98" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="101"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="100"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
     </row>
-    <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="105" t="s">
+    <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="130"/>
-      <c r="W3" s="130"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="131"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="101"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="100"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3838,7 +3784,7 @@
       <c r="AN3" s="1"/>
     </row>
     <row r="5" spans="1:40" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N5" s="91" t="s">
+      <c r="N5" s="63" t="s">
         <v>5</v>
       </c>
       <c r="AA5" s="14"/>
@@ -3852,7 +3798,7 @@
       <c r="AI5" s="14"/>
     </row>
     <row r="6" spans="1:40" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N6" s="90"/>
+      <c r="N6" s="1"/>
       <c r="AA6" s="14"/>
       <c r="AB6" s="14"/>
       <c r="AC6" s="9"/>
@@ -3867,1187 +3813,1031 @@
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="102" t="s">
+      <c r="C7" s="102"/>
+      <c r="D7" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="102" t="s">
+      <c r="E7" s="103"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="102" t="s">
+      <c r="H7" s="103"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="102" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
-      <c r="Z7" s="104"/>
-      <c r="AA7" s="104"/>
-      <c r="AB7" s="104"/>
-      <c r="AC7" s="104"/>
-      <c r="AD7" s="104"/>
-      <c r="AE7" s="103"/>
-      <c r="AF7" s="102" t="s">
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="104"/>
-      <c r="AH7" s="104"/>
-      <c r="AI7" s="103"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="102"/>
     </row>
     <row r="8" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152">
+      <c r="C8" s="83"/>
+      <c r="D8" s="84">
         <v>43635</v>
       </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="155" t="s">
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158" t="s">
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="161" t="s">
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="162"/>
-      <c r="S8" s="162"/>
-      <c r="T8" s="162"/>
-      <c r="U8" s="162"/>
-      <c r="V8" s="162"/>
-      <c r="W8" s="162"/>
-      <c r="X8" s="162"/>
-      <c r="Y8" s="162"/>
-      <c r="Z8" s="162"/>
-      <c r="AA8" s="162"/>
-      <c r="AB8" s="162"/>
-      <c r="AC8" s="162"/>
-      <c r="AD8" s="162"/>
-      <c r="AE8" s="163"/>
-      <c r="AF8" s="164" t="s">
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="165"/>
-      <c r="AI8" s="151"/>
+      <c r="AG8" s="97"/>
+      <c r="AH8" s="97"/>
+      <c r="AI8" s="83"/>
     </row>
     <row r="9" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="144"/>
-      <c r="AG9" s="145"/>
-      <c r="AH9" s="145"/>
-      <c r="AI9" s="146"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="78"/>
     </row>
     <row r="10" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="145"/>
-      <c r="N10" s="145"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="148"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="148"/>
-      <c r="AB10" s="148"/>
-      <c r="AC10" s="148"/>
-      <c r="AD10" s="148"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="144"/>
-      <c r="AG10" s="145"/>
-      <c r="AH10" s="145"/>
-      <c r="AI10" s="146"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="81"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="78"/>
     </row>
     <row r="11" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="148"/>
-      <c r="AB11" s="148"/>
-      <c r="AC11" s="148"/>
-      <c r="AD11" s="148"/>
-      <c r="AE11" s="149"/>
-      <c r="AF11" s="144"/>
-      <c r="AG11" s="145"/>
-      <c r="AH11" s="145"/>
-      <c r="AI11" s="146"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="81"/>
+      <c r="AF11" s="76"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="78"/>
     </row>
     <row r="12" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="148"/>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="148"/>
-      <c r="AB12" s="148"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="149"/>
-      <c r="AF12" s="144"/>
-      <c r="AG12" s="145"/>
-      <c r="AH12" s="145"/>
-      <c r="AI12" s="146"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="80"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="78"/>
     </row>
     <row r="13" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="148"/>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="148"/>
-      <c r="AB13" s="148"/>
-      <c r="AC13" s="148"/>
-      <c r="AD13" s="148"/>
-      <c r="AE13" s="149"/>
-      <c r="AF13" s="144"/>
-      <c r="AG13" s="145"/>
-      <c r="AH13" s="145"/>
-      <c r="AI13" s="146"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="80"/>
+      <c r="AD13" s="80"/>
+      <c r="AE13" s="81"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="78"/>
     </row>
     <row r="14" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="148"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="148"/>
-      <c r="AE14" s="149"/>
-      <c r="AF14" s="144"/>
-      <c r="AG14" s="145"/>
-      <c r="AH14" s="145"/>
-      <c r="AI14" s="146"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="78"/>
     </row>
     <row r="15" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="148"/>
-      <c r="S15" s="148"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="148"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="148"/>
-      <c r="X15" s="148"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="148"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="148"/>
-      <c r="AD15" s="148"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="144"/>
-      <c r="AG15" s="145"/>
-      <c r="AH15" s="145"/>
-      <c r="AI15" s="146"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="80"/>
+      <c r="AC15" s="80"/>
+      <c r="AD15" s="80"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="77"/>
+      <c r="AI15" s="78"/>
     </row>
     <row r="16" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="145"/>
-      <c r="N16" s="145"/>
-      <c r="O16" s="145"/>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="148"/>
-      <c r="Y16" s="148"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="148"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="148"/>
-      <c r="AD16" s="148"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="144"/>
-      <c r="AG16" s="145"/>
-      <c r="AH16" s="145"/>
-      <c r="AI16" s="146"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="77"/>
+      <c r="AH16" s="77"/>
+      <c r="AI16" s="78"/>
     </row>
     <row r="17" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="148"/>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="148"/>
-      <c r="AB17" s="148"/>
-      <c r="AC17" s="148"/>
-      <c r="AD17" s="148"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="144"/>
-      <c r="AG17" s="145"/>
-      <c r="AH17" s="145"/>
-      <c r="AI17" s="146"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="80"/>
+      <c r="AD17" s="80"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="77"/>
+      <c r="AI17" s="78"/>
     </row>
     <row r="18" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="148"/>
-      <c r="AB18" s="148"/>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="149"/>
-      <c r="AF18" s="144"/>
-      <c r="AG18" s="145"/>
-      <c r="AH18" s="145"/>
-      <c r="AI18" s="146"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="81"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="77"/>
+      <c r="AH18" s="77"/>
+      <c r="AI18" s="78"/>
     </row>
     <row r="19" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="148"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="148"/>
-      <c r="Y19" s="148"/>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="148"/>
-      <c r="AB19" s="148"/>
-      <c r="AC19" s="148"/>
-      <c r="AD19" s="148"/>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="144"/>
-      <c r="AG19" s="145"/>
-      <c r="AH19" s="145"/>
-      <c r="AI19" s="146"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="80"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="76"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="78"/>
     </row>
     <row r="20" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="145"/>
-      <c r="O20" s="145"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="148"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="148"/>
-      <c r="AB20" s="148"/>
-      <c r="AC20" s="148"/>
-      <c r="AD20" s="148"/>
-      <c r="AE20" s="149"/>
-      <c r="AF20" s="144"/>
-      <c r="AG20" s="145"/>
-      <c r="AH20" s="145"/>
-      <c r="AI20" s="146"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="78"/>
     </row>
     <row r="21" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="148"/>
-      <c r="X21" s="148"/>
-      <c r="Y21" s="148"/>
-      <c r="Z21" s="148"/>
-      <c r="AA21" s="148"/>
-      <c r="AB21" s="148"/>
-      <c r="AC21" s="148"/>
-      <c r="AD21" s="148"/>
-      <c r="AE21" s="149"/>
-      <c r="AF21" s="144"/>
-      <c r="AG21" s="145"/>
-      <c r="AH21" s="145"/>
-      <c r="AI21" s="146"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="76"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="78"/>
     </row>
     <row r="22" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="146"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="148"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="148"/>
-      <c r="Y22" s="148"/>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="148"/>
-      <c r="AB22" s="148"/>
-      <c r="AC22" s="148"/>
-      <c r="AD22" s="148"/>
-      <c r="AE22" s="149"/>
-      <c r="AF22" s="144"/>
-      <c r="AG22" s="145"/>
-      <c r="AH22" s="145"/>
-      <c r="AI22" s="146"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="80"/>
+      <c r="AD22" s="80"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="78"/>
     </row>
     <row r="23" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145"/>
-      <c r="O23" s="145"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="148"/>
-      <c r="AB23" s="148"/>
-      <c r="AC23" s="148"/>
-      <c r="AD23" s="148"/>
-      <c r="AE23" s="149"/>
-      <c r="AF23" s="144"/>
-      <c r="AG23" s="145"/>
-      <c r="AH23" s="145"/>
-      <c r="AI23" s="146"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="80"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="80"/>
+      <c r="AD23" s="80"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="77"/>
+      <c r="AH23" s="77"/>
+      <c r="AI23" s="78"/>
     </row>
     <row r="24" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="145"/>
-      <c r="L24" s="145"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="145"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="146"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="148"/>
-      <c r="X24" s="148"/>
-      <c r="Y24" s="148"/>
-      <c r="Z24" s="148"/>
-      <c r="AA24" s="148"/>
-      <c r="AB24" s="148"/>
-      <c r="AC24" s="148"/>
-      <c r="AD24" s="148"/>
-      <c r="AE24" s="149"/>
-      <c r="AF24" s="144"/>
-      <c r="AG24" s="145"/>
-      <c r="AH24" s="145"/>
-      <c r="AI24" s="146"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="80"/>
+      <c r="AC24" s="80"/>
+      <c r="AD24" s="80"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="77"/>
+      <c r="AI24" s="78"/>
     </row>
     <row r="25" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="145"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="145"/>
-      <c r="O25" s="145"/>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="148"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="148"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="148"/>
-      <c r="X25" s="148"/>
-      <c r="Y25" s="148"/>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="148"/>
-      <c r="AB25" s="148"/>
-      <c r="AC25" s="148"/>
-      <c r="AD25" s="148"/>
-      <c r="AE25" s="149"/>
-      <c r="AF25" s="144"/>
-      <c r="AG25" s="145"/>
-      <c r="AH25" s="145"/>
-      <c r="AI25" s="146"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="80"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="80"/>
+      <c r="AB25" s="80"/>
+      <c r="AC25" s="80"/>
+      <c r="AD25" s="80"/>
+      <c r="AE25" s="81"/>
+      <c r="AF25" s="76"/>
+      <c r="AG25" s="77"/>
+      <c r="AH25" s="77"/>
+      <c r="AI25" s="78"/>
     </row>
     <row r="26" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="145"/>
-      <c r="O26" s="145"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="147"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="148"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="148"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="148"/>
-      <c r="X26" s="148"/>
-      <c r="Y26" s="148"/>
-      <c r="Z26" s="148"/>
-      <c r="AA26" s="148"/>
-      <c r="AB26" s="148"/>
-      <c r="AC26" s="148"/>
-      <c r="AD26" s="148"/>
-      <c r="AE26" s="149"/>
-      <c r="AF26" s="144"/>
-      <c r="AG26" s="145"/>
-      <c r="AH26" s="145"/>
-      <c r="AI26" s="146"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="80"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="76"/>
+      <c r="AG26" s="77"/>
+      <c r="AH26" s="77"/>
+      <c r="AI26" s="78"/>
     </row>
     <row r="27" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="145"/>
-      <c r="O27" s="145"/>
-      <c r="P27" s="146"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="148"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="148"/>
-      <c r="X27" s="148"/>
-      <c r="Y27" s="148"/>
-      <c r="Z27" s="148"/>
-      <c r="AA27" s="148"/>
-      <c r="AB27" s="148"/>
-      <c r="AC27" s="148"/>
-      <c r="AD27" s="148"/>
-      <c r="AE27" s="149"/>
-      <c r="AF27" s="144"/>
-      <c r="AG27" s="145"/>
-      <c r="AH27" s="145"/>
-      <c r="AI27" s="146"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="80"/>
+      <c r="AD27" s="80"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="76"/>
+      <c r="AG27" s="77"/>
+      <c r="AH27" s="77"/>
+      <c r="AI27" s="78"/>
     </row>
     <row r="28" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="148"/>
-      <c r="Y28" s="148"/>
-      <c r="Z28" s="148"/>
-      <c r="AA28" s="148"/>
-      <c r="AB28" s="148"/>
-      <c r="AC28" s="148"/>
-      <c r="AD28" s="148"/>
-      <c r="AE28" s="149"/>
-      <c r="AF28" s="144"/>
-      <c r="AG28" s="145"/>
-      <c r="AH28" s="145"/>
-      <c r="AI28" s="146"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="80"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="80"/>
+      <c r="AC28" s="80"/>
+      <c r="AD28" s="80"/>
+      <c r="AE28" s="81"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="77"/>
+      <c r="AH28" s="77"/>
+      <c r="AI28" s="78"/>
     </row>
     <row r="29" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="145"/>
-      <c r="N29" s="145"/>
-      <c r="O29" s="145"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="148"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="148"/>
-      <c r="X29" s="148"/>
-      <c r="Y29" s="148"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="148"/>
-      <c r="AB29" s="148"/>
-      <c r="AC29" s="148"/>
-      <c r="AD29" s="148"/>
-      <c r="AE29" s="149"/>
-      <c r="AF29" s="144"/>
-      <c r="AG29" s="145"/>
-      <c r="AH29" s="145"/>
-      <c r="AI29" s="146"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="80"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="80"/>
+      <c r="AD29" s="80"/>
+      <c r="AE29" s="81"/>
+      <c r="AF29" s="76"/>
+      <c r="AG29" s="77"/>
+      <c r="AH29" s="77"/>
+      <c r="AI29" s="78"/>
     </row>
     <row r="30" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="145"/>
-      <c r="O30" s="145"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="147"/>
-      <c r="R30" s="148"/>
-      <c r="S30" s="148"/>
-      <c r="T30" s="148"/>
-      <c r="U30" s="148"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="148"/>
-      <c r="X30" s="148"/>
-      <c r="Y30" s="148"/>
-      <c r="Z30" s="148"/>
-      <c r="AA30" s="148"/>
-      <c r="AB30" s="148"/>
-      <c r="AC30" s="148"/>
-      <c r="AD30" s="148"/>
-      <c r="AE30" s="149"/>
-      <c r="AF30" s="144"/>
-      <c r="AG30" s="145"/>
-      <c r="AH30" s="145"/>
-      <c r="AI30" s="146"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="80"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="81"/>
+      <c r="AF30" s="76"/>
+      <c r="AG30" s="77"/>
+      <c r="AH30" s="77"/>
+      <c r="AI30" s="78"/>
     </row>
     <row r="31" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="145"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="145"/>
-      <c r="O31" s="145"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="147"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="148"/>
-      <c r="T31" s="148"/>
-      <c r="U31" s="148"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="148"/>
-      <c r="X31" s="148"/>
-      <c r="Y31" s="148"/>
-      <c r="Z31" s="148"/>
-      <c r="AA31" s="148"/>
-      <c r="AB31" s="148"/>
-      <c r="AC31" s="148"/>
-      <c r="AD31" s="148"/>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="144"/>
-      <c r="AG31" s="145"/>
-      <c r="AH31" s="145"/>
-      <c r="AI31" s="146"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="80"/>
+      <c r="S31" s="80"/>
+      <c r="T31" s="80"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="80"/>
+      <c r="Y31" s="80"/>
+      <c r="Z31" s="80"/>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="80"/>
+      <c r="AD31" s="80"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="76"/>
+      <c r="AG31" s="77"/>
+      <c r="AH31" s="77"/>
+      <c r="AI31" s="78"/>
     </row>
     <row r="32" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="145"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="147"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="148"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="148"/>
-      <c r="Y32" s="148"/>
-      <c r="Z32" s="148"/>
-      <c r="AA32" s="148"/>
-      <c r="AB32" s="148"/>
-      <c r="AC32" s="148"/>
-      <c r="AD32" s="148"/>
-      <c r="AE32" s="149"/>
-      <c r="AF32" s="144"/>
-      <c r="AG32" s="145"/>
-      <c r="AH32" s="145"/>
-      <c r="AI32" s="146"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="80"/>
+      <c r="U32" s="80"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="80"/>
+      <c r="Y32" s="80"/>
+      <c r="Z32" s="80"/>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="80"/>
+      <c r="AC32" s="80"/>
+      <c r="AD32" s="80"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="76"/>
+      <c r="AG32" s="77"/>
+      <c r="AH32" s="77"/>
+      <c r="AI32" s="78"/>
     </row>
     <row r="33" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="145"/>
-      <c r="N33" s="145"/>
-      <c r="O33" s="145"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148"/>
-      <c r="Y33" s="148"/>
-      <c r="Z33" s="148"/>
-      <c r="AA33" s="148"/>
-      <c r="AB33" s="148"/>
-      <c r="AC33" s="148"/>
-      <c r="AD33" s="148"/>
-      <c r="AE33" s="149"/>
-      <c r="AF33" s="144"/>
-      <c r="AG33" s="145"/>
-      <c r="AH33" s="145"/>
-      <c r="AI33" s="146"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="79"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="80"/>
+      <c r="U33" s="80"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="80"/>
+      <c r="Y33" s="80"/>
+      <c r="Z33" s="80"/>
+      <c r="AA33" s="80"/>
+      <c r="AB33" s="80"/>
+      <c r="AC33" s="80"/>
+      <c r="AD33" s="80"/>
+      <c r="AE33" s="81"/>
+      <c r="AF33" s="76"/>
+      <c r="AG33" s="77"/>
+      <c r="AH33" s="77"/>
+      <c r="AI33" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -5071,6 +4861,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -5085,7 +5031,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL52"/>
+  <dimension ref="A1:AL49"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -5093,1761 +5039,1584 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="42" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="62" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="42" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="62" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="42"/>
-    <col min="257" max="290" width="4.83203125" style="42" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="42"/>
-    <col min="513" max="546" width="4.83203125" style="42" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="42"/>
-    <col min="769" max="802" width="4.83203125" style="42" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="42"/>
-    <col min="1025" max="1058" width="4.83203125" style="42" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="42"/>
-    <col min="1281" max="1314" width="4.83203125" style="42" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="42"/>
-    <col min="1537" max="1570" width="4.83203125" style="42" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="42"/>
-    <col min="1793" max="1826" width="4.83203125" style="42" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="42"/>
-    <col min="2049" max="2082" width="4.83203125" style="42" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="42"/>
-    <col min="2305" max="2338" width="4.83203125" style="42" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="42"/>
-    <col min="2561" max="2594" width="4.83203125" style="42" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="42"/>
-    <col min="2817" max="2850" width="4.83203125" style="42" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="42"/>
-    <col min="3073" max="3106" width="4.83203125" style="42" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="42"/>
-    <col min="3329" max="3362" width="4.83203125" style="42" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="42"/>
-    <col min="3585" max="3618" width="4.83203125" style="42" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="42"/>
-    <col min="3841" max="3874" width="4.83203125" style="42" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="42"/>
-    <col min="4097" max="4130" width="4.83203125" style="42" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="42"/>
-    <col min="4353" max="4386" width="4.83203125" style="42" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="42"/>
-    <col min="4609" max="4642" width="4.83203125" style="42" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="42"/>
-    <col min="4865" max="4898" width="4.83203125" style="42" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="42"/>
-    <col min="5121" max="5154" width="4.83203125" style="42" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="42"/>
-    <col min="5377" max="5410" width="4.83203125" style="42" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="42"/>
-    <col min="5633" max="5666" width="4.83203125" style="42" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="42"/>
-    <col min="5889" max="5922" width="4.83203125" style="42" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="42"/>
-    <col min="6145" max="6178" width="4.83203125" style="42" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="42"/>
-    <col min="6401" max="6434" width="4.83203125" style="42" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="42"/>
-    <col min="6657" max="6690" width="4.83203125" style="42" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="42"/>
-    <col min="6913" max="6946" width="4.83203125" style="42" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="42"/>
-    <col min="7169" max="7202" width="4.83203125" style="42" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="42"/>
-    <col min="7425" max="7458" width="4.83203125" style="42" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="42"/>
-    <col min="7681" max="7714" width="4.83203125" style="42" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="42"/>
-    <col min="7937" max="7970" width="4.83203125" style="42" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="42"/>
-    <col min="8193" max="8226" width="4.83203125" style="42" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="42"/>
-    <col min="8449" max="8482" width="4.83203125" style="42" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="42"/>
-    <col min="8705" max="8738" width="4.83203125" style="42" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="42"/>
-    <col min="8961" max="8994" width="4.83203125" style="42" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="42"/>
-    <col min="9217" max="9250" width="4.83203125" style="42" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="42"/>
-    <col min="9473" max="9506" width="4.83203125" style="42" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="42"/>
-    <col min="9729" max="9762" width="4.83203125" style="42" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="42"/>
-    <col min="9985" max="10018" width="4.83203125" style="42" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="42"/>
-    <col min="10241" max="10274" width="4.83203125" style="42" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="42"/>
-    <col min="10497" max="10530" width="4.83203125" style="42" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="42"/>
-    <col min="10753" max="10786" width="4.83203125" style="42" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="42"/>
-    <col min="11009" max="11042" width="4.83203125" style="42" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="42"/>
-    <col min="11265" max="11298" width="4.83203125" style="42" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="42"/>
-    <col min="11521" max="11554" width="4.83203125" style="42" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="42"/>
-    <col min="11777" max="11810" width="4.83203125" style="42" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="42"/>
-    <col min="12033" max="12066" width="4.83203125" style="42" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="42"/>
-    <col min="12289" max="12322" width="4.83203125" style="42" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="42"/>
-    <col min="12545" max="12578" width="4.83203125" style="42" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="42"/>
-    <col min="12801" max="12834" width="4.83203125" style="42" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="42"/>
-    <col min="13057" max="13090" width="4.83203125" style="42" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="42"/>
-    <col min="13313" max="13346" width="4.83203125" style="42" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="42"/>
-    <col min="13569" max="13602" width="4.83203125" style="42" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="42"/>
-    <col min="13825" max="13858" width="4.83203125" style="42" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="42"/>
-    <col min="14081" max="14114" width="4.83203125" style="42" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="42"/>
-    <col min="14337" max="14370" width="4.83203125" style="42" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="42"/>
-    <col min="14593" max="14626" width="4.83203125" style="42" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="42"/>
-    <col min="14849" max="14882" width="4.83203125" style="42" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="42"/>
-    <col min="15105" max="15138" width="4.83203125" style="42" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="42"/>
-    <col min="15361" max="15394" width="4.83203125" style="42" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="42"/>
-    <col min="15617" max="15650" width="4.83203125" style="42" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="42"/>
-    <col min="15873" max="15906" width="4.83203125" style="42" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="42"/>
-    <col min="16129" max="16162" width="4.83203125" style="42" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="42"/>
+    <col min="1" max="16" width="4.83203125" style="33" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="44" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="33" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="44" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="33"/>
+    <col min="257" max="290" width="4.83203125" style="33" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="33"/>
+    <col min="513" max="546" width="4.83203125" style="33" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="33"/>
+    <col min="769" max="802" width="4.83203125" style="33" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="33"/>
+    <col min="1025" max="1058" width="4.83203125" style="33" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="33"/>
+    <col min="1281" max="1314" width="4.83203125" style="33" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="33"/>
+    <col min="1537" max="1570" width="4.83203125" style="33" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="33"/>
+    <col min="1793" max="1826" width="4.83203125" style="33" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="33"/>
+    <col min="2049" max="2082" width="4.83203125" style="33" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="33"/>
+    <col min="2305" max="2338" width="4.83203125" style="33" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="33"/>
+    <col min="2561" max="2594" width="4.83203125" style="33" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="33"/>
+    <col min="2817" max="2850" width="4.83203125" style="33" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="33"/>
+    <col min="3073" max="3106" width="4.83203125" style="33" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="33"/>
+    <col min="3329" max="3362" width="4.83203125" style="33" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="33"/>
+    <col min="3585" max="3618" width="4.83203125" style="33" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="33"/>
+    <col min="3841" max="3874" width="4.83203125" style="33" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="33"/>
+    <col min="4097" max="4130" width="4.83203125" style="33" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="33"/>
+    <col min="4353" max="4386" width="4.83203125" style="33" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="33"/>
+    <col min="4609" max="4642" width="4.83203125" style="33" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="33"/>
+    <col min="4865" max="4898" width="4.83203125" style="33" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="33"/>
+    <col min="5121" max="5154" width="4.83203125" style="33" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="33"/>
+    <col min="5377" max="5410" width="4.83203125" style="33" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="33"/>
+    <col min="5633" max="5666" width="4.83203125" style="33" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="33"/>
+    <col min="5889" max="5922" width="4.83203125" style="33" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="33"/>
+    <col min="6145" max="6178" width="4.83203125" style="33" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="33"/>
+    <col min="6401" max="6434" width="4.83203125" style="33" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="33"/>
+    <col min="6657" max="6690" width="4.83203125" style="33" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="33"/>
+    <col min="6913" max="6946" width="4.83203125" style="33" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="33"/>
+    <col min="7169" max="7202" width="4.83203125" style="33" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="33"/>
+    <col min="7425" max="7458" width="4.83203125" style="33" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="33"/>
+    <col min="7681" max="7714" width="4.83203125" style="33" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="33"/>
+    <col min="7937" max="7970" width="4.83203125" style="33" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="33"/>
+    <col min="8193" max="8226" width="4.83203125" style="33" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="33"/>
+    <col min="8449" max="8482" width="4.83203125" style="33" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="33"/>
+    <col min="8705" max="8738" width="4.83203125" style="33" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="33"/>
+    <col min="8961" max="8994" width="4.83203125" style="33" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="33"/>
+    <col min="9217" max="9250" width="4.83203125" style="33" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="33"/>
+    <col min="9473" max="9506" width="4.83203125" style="33" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="33"/>
+    <col min="9729" max="9762" width="4.83203125" style="33" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="33"/>
+    <col min="9985" max="10018" width="4.83203125" style="33" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="33"/>
+    <col min="10241" max="10274" width="4.83203125" style="33" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="33"/>
+    <col min="10497" max="10530" width="4.83203125" style="33" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="33"/>
+    <col min="10753" max="10786" width="4.83203125" style="33" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="33"/>
+    <col min="11009" max="11042" width="4.83203125" style="33" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="33"/>
+    <col min="11265" max="11298" width="4.83203125" style="33" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="33"/>
+    <col min="11521" max="11554" width="4.83203125" style="33" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="33"/>
+    <col min="11777" max="11810" width="4.83203125" style="33" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="33"/>
+    <col min="12033" max="12066" width="4.83203125" style="33" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="33"/>
+    <col min="12289" max="12322" width="4.83203125" style="33" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="33"/>
+    <col min="12545" max="12578" width="4.83203125" style="33" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="33"/>
+    <col min="12801" max="12834" width="4.83203125" style="33" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="33"/>
+    <col min="13057" max="13090" width="4.83203125" style="33" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="33"/>
+    <col min="13313" max="13346" width="4.83203125" style="33" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="33"/>
+    <col min="13569" max="13602" width="4.83203125" style="33" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="33"/>
+    <col min="13825" max="13858" width="4.83203125" style="33" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="33"/>
+    <col min="14081" max="14114" width="4.83203125" style="33" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="33"/>
+    <col min="14337" max="14370" width="4.83203125" style="33" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="33"/>
+    <col min="14593" max="14626" width="4.83203125" style="33" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="33"/>
+    <col min="14849" max="14882" width="4.83203125" style="33" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="33"/>
+    <col min="15105" max="15138" width="4.83203125" style="33" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="33"/>
+    <col min="15361" max="15394" width="4.83203125" style="33" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="33"/>
+    <col min="15617" max="15650" width="4.83203125" style="33" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="33"/>
+    <col min="15873" max="15906" width="4.83203125" style="33" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="33"/>
+    <col min="16129" max="16162" width="4.83203125" style="33" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="169" t="str">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="114" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="123" t="str">
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="122" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ネット・ジョブフロー</v>
       </c>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="125"/>
-      <c r="AA1" s="105" t="s">
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="132" t="str">
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="131" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="166">
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="133"/>
+      <c r="AG1" s="138">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43635</v>
       </c>
-      <c r="AH1" s="167"/>
-      <c r="AI1" s="168"/>
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="140"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
-    <row r="2" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="105" t="s">
+    <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="169" t="str">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="105" t="s">
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="135" t="str">
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="166" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="167"/>
-      <c r="AI2" s="168"/>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="140"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
-    <row r="3" spans="1:38" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="105" t="s">
+    <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="169" t="str">
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="130"/>
-      <c r="W3" s="130"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="131"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="135" t="str">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="166" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="167"/>
-      <c r="AI3" s="168"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="140"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" s="33" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-    </row>
-    <row r="5" spans="1:38" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="34" t="s">
+    <row r="4" spans="1:38" s="30" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-    </row>
-    <row r="6" spans="1:38" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+    </row>
+    <row r="6" spans="1:38" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
-      <c r="B7" s="73" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="47" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="41"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="5"/>
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="41"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="5"/>
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="35"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="5"/>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="41"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="5"/>
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="40"/>
-      <c r="AI11" s="41"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="5"/>
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="41"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="5"/>
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="40"/>
-      <c r="AI13" s="41"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="5"/>
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="41"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="5"/>
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="41"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="5"/>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="41"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="5"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="41"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="5"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="41"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="5"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="40"/>
-      <c r="AI19" s="41"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="5"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="41"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="5"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="40"/>
-      <c r="AI21" s="41"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="5"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="41"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="5"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="40"/>
-      <c r="AI23" s="41"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="5"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="40"/>
-      <c r="AI24" s="41"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="5"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="40"/>
-      <c r="AI25" s="41"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="5"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="41"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="5"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="38"/>
-      <c r="AH27" s="40"/>
-      <c r="AI27" s="41"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="5"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="40"/>
-      <c r="AI28" s="41"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="5"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="40"/>
-      <c r="AI29" s="41"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="5"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="47"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="48"/>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="48"/>
-      <c r="AG30" s="49"/>
-      <c r="AH30" s="50"/>
-      <c r="AI30" s="51"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="35"/>
+      <c r="AF30" s="35"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="35"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="47"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="50"/>
-      <c r="AI31" s="51"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="35"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="47"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="49"/>
-      <c r="AH32" s="50"/>
-      <c r="AI32" s="51"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="36"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="35"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="47"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="47"/>
-      <c r="AC33" s="47"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="49"/>
-      <c r="AH33" s="50"/>
-      <c r="AI33" s="51"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="35"/>
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="47"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
-      <c r="AG34" s="49"/>
-      <c r="AH34" s="50"/>
-      <c r="AI34" s="51"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="35"/>
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="48"/>
-      <c r="AG35" s="49"/>
-      <c r="AH35" s="50"/>
-      <c r="AI35" s="51"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" s="35"/>
     </row>
     <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="47"/>
-      <c r="AG36" s="47"/>
-      <c r="AH36" s="59"/>
-      <c r="AI36" s="47"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="35"/>
     </row>
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="61"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="63"/>
-      <c r="Y37" s="63"/>
-      <c r="Z37" s="63"/>
-      <c r="AA37" s="63"/>
-      <c r="AB37" s="63"/>
-      <c r="AC37" s="63"/>
-      <c r="AD37" s="63"/>
-      <c r="AE37" s="65"/>
-      <c r="AF37" s="65"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="67"/>
-      <c r="AI37" s="63"/>
+      <c r="P37" s="43"/>
+      <c r="U37" s="45"/>
+      <c r="AG37" s="46"/>
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S38" s="63"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
-      <c r="AD38" s="63"/>
-      <c r="AE38" s="63"/>
-      <c r="AF38" s="68"/>
-      <c r="AG38" s="69"/>
-      <c r="AH38" s="70"/>
-      <c r="AI38" s="63"/>
+      <c r="U38" s="45"/>
+      <c r="AF38" s="46"/>
+      <c r="AG38" s="43"/>
     </row>
     <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q39" s="71"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="63"/>
-      <c r="V39" s="63"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="63"/>
-      <c r="Y39" s="63"/>
-      <c r="Z39" s="63"/>
-      <c r="AA39" s="63"/>
-      <c r="AB39" s="63"/>
-      <c r="AC39" s="63"/>
-      <c r="AD39" s="63"/>
-      <c r="AE39" s="63"/>
-      <c r="AF39" s="68"/>
-      <c r="AG39" s="68"/>
-      <c r="AH39" s="70"/>
-      <c r="AI39" s="63"/>
+      <c r="T39" s="45"/>
+      <c r="AF39" s="46"/>
+      <c r="AG39" s="46"/>
     </row>
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S40" s="63"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="63"/>
-      <c r="V40" s="63"/>
-      <c r="W40" s="63"/>
-      <c r="X40" s="63"/>
-      <c r="Y40" s="63"/>
-      <c r="Z40" s="63"/>
-      <c r="AA40" s="63"/>
-      <c r="AB40" s="63"/>
-      <c r="AC40" s="63"/>
-      <c r="AD40" s="63"/>
-      <c r="AE40" s="63"/>
-      <c r="AF40" s="63"/>
-      <c r="AG40" s="69"/>
-      <c r="AH40" s="70"/>
-      <c r="AI40" s="63"/>
+      <c r="AG40" s="43"/>
     </row>
     <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="AE41" s="63"/>
-      <c r="AF41" s="63"/>
-      <c r="AG41" s="69"/>
-      <c r="AH41" s="70"/>
-      <c r="AI41" s="63"/>
+      <c r="AG41" s="43"/>
     </row>
     <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE42" s="63"/>
-      <c r="AF42" s="68"/>
-      <c r="AG42" s="69"/>
-      <c r="AH42" s="70"/>
-      <c r="AI42" s="63"/>
+      <c r="AF42" s="46"/>
+      <c r="AG42" s="43"/>
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE43" s="63"/>
-      <c r="AF43" s="68"/>
-      <c r="AG43" s="68"/>
-      <c r="AH43" s="70"/>
-      <c r="AI43" s="63"/>
+      <c r="AF43" s="46"/>
+      <c r="AG43" s="46"/>
     </row>
     <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="60"/>
-      <c r="AF44" s="72"/>
-      <c r="AG44" s="72"/>
+      <c r="AF44" s="46"/>
+      <c r="AG44" s="46"/>
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="60"/>
-      <c r="AG45" s="72"/>
+      <c r="AG45" s="46"/>
     </row>
     <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AF46" s="72"/>
-      <c r="AG46" s="72"/>
+      <c r="AF46" s="46"/>
+      <c r="AG46" s="46"/>
     </row>
     <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AG47" s="72"/>
-    </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S48" s="60"/>
-      <c r="T48" s="60"/>
-      <c r="V48" s="60"/>
-      <c r="W48" s="60"/>
-      <c r="X48" s="60"/>
-      <c r="Y48" s="60"/>
-      <c r="Z48" s="60"/>
-      <c r="AA48" s="60"/>
-      <c r="AB48" s="60"/>
-      <c r="AC48" s="60"/>
-      <c r="AD48" s="60"/>
-    </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R49" s="60"/>
-      <c r="S49" s="60"/>
-      <c r="T49" s="60"/>
-      <c r="V49" s="60"/>
-      <c r="W49" s="60"/>
-      <c r="X49" s="60"/>
-      <c r="Y49" s="60"/>
-      <c r="Z49" s="60"/>
-      <c r="AA49" s="60"/>
-      <c r="AB49" s="60"/>
-      <c r="AC49" s="60"/>
-      <c r="AD49" s="60"/>
-      <c r="AG49" s="72"/>
-    </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R50" s="60"/>
-    </row>
-    <row r="51" spans="1:34" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="42"/>
-      <c r="W51" s="42"/>
-      <c r="X51" s="42"/>
-      <c r="Y51" s="42"/>
-      <c r="Z51" s="42"/>
-      <c r="AA51" s="42"/>
-      <c r="AB51" s="42"/>
-      <c r="AC51" s="42"/>
-      <c r="AD51" s="42"/>
-      <c r="AH51" s="71"/>
-    </row>
-    <row r="52" spans="1:34" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="42"/>
-      <c r="W52" s="42"/>
-      <c r="X52" s="42"/>
-      <c r="Y52" s="42"/>
-      <c r="Z52" s="42"/>
-      <c r="AA52" s="42"/>
-      <c r="AB52" s="42"/>
-      <c r="AC52" s="42"/>
-      <c r="AD52" s="42"/>
-      <c r="AH52" s="71"/>
+      <c r="AG47" s="46"/>
+    </row>
+    <row r="49" spans="33:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG49" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6857,14 +6626,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -6890,389 +6651,324 @@
     <col min="1" max="16384" width="4.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:35" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="169" t="str">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="170" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="179" t="str">
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ネット・ジョブフロー</v>
       </c>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="105" t="s">
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="132" t="str">
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="131" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="166">
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="133"/>
+      <c r="AG1" s="138">
         <v>43635</v>
       </c>
-      <c r="AH1" s="167"/>
-      <c r="AI1" s="168"/>
-    </row>
-    <row r="2" spans="1:35" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="105" t="s">
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="140"/>
+    </row>
+    <row r="2" spans="1:35" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="169" t="str">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="105" t="s">
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="135" t="str">
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="166" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="167"/>
-      <c r="AI2" s="168"/>
-    </row>
-    <row r="3" spans="1:35" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="105" t="s">
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="140"/>
+    </row>
+    <row r="3" spans="1:35" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="169" t="str">
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="186"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="186"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="135" t="str">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="156"/>
+      <c r="T3" s="157"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="157"/>
+      <c r="W3" s="157"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="158"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="166" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="167"/>
-      <c r="AI3" s="168"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="140"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="48" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="48" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:35" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="76"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="79"/>
+      <c r="N9" s="52"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="C10" s="93"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="79"/>
+      <c r="C10" s="65"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="C11" s="77"/>
-      <c r="D11" s="94" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="79"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="C12" s="77"/>
-      <c r="D12" s="95" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="79"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="C13" s="77"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="96" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="56"/>
+      <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="79"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="52"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="C14" s="77"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="96" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="56"/>
+      <c r="F14" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="79"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="52"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="C15" s="77"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="79"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="52"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="C16" s="77"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="79"/>
+      <c r="C16" s="51"/>
+      <c r="N16" s="52"/>
     </row>
     <row r="17" spans="3:47" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="89"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="62"/>
     </row>
     <row r="26" spans="3:47" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="3:47" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="AP27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AQ27" s="75"/>
-      <c r="AR27" s="75"/>
-      <c r="AS27" s="75"/>
-      <c r="AT27" s="75"/>
-      <c r="AU27" s="76"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="49"/>
+      <c r="AU27" s="50"/>
     </row>
     <row r="28" spans="3:47" x14ac:dyDescent="0.15">
-      <c r="AP28" s="93" t="s">
+      <c r="AP28" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="AQ28" s="78"/>
-      <c r="AR28" s="78"/>
-      <c r="AS28" s="78"/>
-      <c r="AT28" s="78"/>
-      <c r="AU28" s="79"/>
+      <c r="AU28" s="52"/>
     </row>
     <row r="29" spans="3:47" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="AP29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AQ29" s="88"/>
-      <c r="AR29" s="88"/>
-      <c r="AS29" s="88"/>
-      <c r="AT29" s="88"/>
-      <c r="AU29" s="89"/>
+      <c r="AQ29" s="61"/>
+      <c r="AR29" s="61"/>
+      <c r="AS29" s="61"/>
+      <c r="AT29" s="61"/>
+      <c r="AU29" s="62"/>
     </row>
     <row r="31" spans="3:47" x14ac:dyDescent="0.15">
-      <c r="AP31" s="80" t="s">
+      <c r="AP31" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="AQ31" s="81"/>
-      <c r="AR31" s="81"/>
-      <c r="AS31" s="81"/>
-      <c r="AT31" s="81"/>
-      <c r="AU31" s="82"/>
+      <c r="AQ31" s="54"/>
+      <c r="AR31" s="54"/>
+      <c r="AS31" s="54"/>
+      <c r="AT31" s="54"/>
+      <c r="AU31" s="55"/>
     </row>
     <row r="32" spans="3:47" x14ac:dyDescent="0.15">
-      <c r="AP32" s="83" t="s">
+      <c r="AP32" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="AQ32" s="78"/>
-      <c r="AR32" s="78"/>
-      <c r="AS32" s="78"/>
-      <c r="AT32" s="78"/>
-      <c r="AU32" s="84"/>
+      <c r="AU32" s="57"/>
     </row>
     <row r="33" spans="42:47" x14ac:dyDescent="0.15">
-      <c r="AP33" s="85"/>
-      <c r="AQ33" s="86"/>
-      <c r="AR33" s="86"/>
-      <c r="AS33" s="86"/>
-      <c r="AT33" s="86"/>
-      <c r="AU33" s="87"/>
+      <c r="AP33" s="58"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="59"/>
+      <c r="AS33" s="59"/>
+      <c r="AT33" s="59"/>
+      <c r="AU33" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -7285,11 +6981,16 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
